--- a/network analysis/infection.xlsx
+++ b/network analysis/infection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="89">
   <si>
     <t>H1</t>
   </si>
@@ -144,9 +144,6 @@
     <t>H10</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>#11</t>
   </si>
   <si>
@@ -207,7 +204,88 @@
     <t>#17</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>H27</t>
+  </si>
+  <si>
+    <t>H28</t>
+  </si>
+  <si>
+    <t>H29</t>
+  </si>
+  <si>
+    <t>H30</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#30</t>
   </si>
 </sst>
 </file>
@@ -619,31 +697,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>39</v>
@@ -748,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,45 +837,41 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -823,11 +897,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -844,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>43812</v>
+        <v>43813</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -854,13 +925,10 @@
       </c>
       <c r="I3" s="1">
         <f>F3+14</f>
-        <v>43826</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -889,11 +957,8 @@
         <f t="shared" ref="I4:I19" si="0">F4+14</f>
         <v>43827</v>
       </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -922,11 +987,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -949,22 +1011,19 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I7" si="1">F6+14</f>
         <v>43827</v>
       </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>36</v>
@@ -982,22 +1041,19 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>43827</v>
       </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>36</v>
@@ -1015,17 +1071,14 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ref="I8" si="2">F8+14</f>
         <v>43827</v>
       </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1054,11 +1107,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1087,19 +1137,16 @@
         <f t="shared" si="0"/>
         <v>43828</v>
       </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -1111,28 +1158,25 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>43812</v>
+        <v>43813</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>43826</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -1144,28 +1188,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>43812</v>
+        <v>43813</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>43826</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -1180,25 +1221,22 @@
         <v>43812</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13:I14" si="3">F13+14</f>
         <v>43826</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
@@ -1213,17 +1251,17 @@
         <v>43812</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
         <v>43826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1252,11 +1290,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1285,11 +1320,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1318,11 +1350,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1351,11 +1380,8 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1384,8 +1410,455 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J19" s="8">
-        <v>1</v>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20:I22" si="4">F20+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ref="I23:I25" si="5">F23+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="5"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="5"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ref="I26:I28" si="6">F26+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="6"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="6"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I32" si="7">F29+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="7"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="7"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="7"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ref="I33:I34" si="8">F33+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="8"/>
+        <v>43827</v>
       </c>
     </row>
   </sheetData>
@@ -1395,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,42 +1887,39 @@
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1475,18 +1945,15 @@
         <v>13</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
@@ -1496,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -1506,20 +1973,17 @@
       </c>
       <c r="I3" s="1">
         <f>F3+14</f>
-        <v>43828</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
@@ -1529,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>43817</v>
+        <v>43813</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1538,21 +2002,18 @@
         <v>15</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I14" si="0">F4+14</f>
-        <v>43831</v>
-      </c>
-      <c r="J4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I34" si="0">F4+14</f>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -1574,18 +2035,15 @@
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
@@ -1598,27 +2056,24 @@
         <v>43813</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
@@ -1628,33 +2083,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>43828</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
@@ -1667,27 +2116,24 @@
         <v>43813</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
@@ -1700,27 +2146,24 @@
         <v>43813</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
@@ -1730,30 +2173,30 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>43813</v>
+        <v>43814</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>43827</v>
-      </c>
-      <c r="J10" s="8">
+        <v>43828</v>
+      </c>
+      <c r="J10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
@@ -1766,27 +2209,24 @@
         <v>43813</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
@@ -1799,149 +2239,674 @@
         <v>43813</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>43827</v>
       </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>43815</v>
+        <v>43812</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>43829</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43812</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>43816</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>43830</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>43815</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G32" t="s">
         <v>19</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ref="I15" si="1">F15+14</f>
-        <v>43829</v>
-      </c>
-      <c r="J15" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>43815</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G33" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ref="I16" si="2">F16+14</f>
-        <v>43829</v>
-      </c>
-      <c r="J16" s="8">
-        <v>3</v>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43813</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>43827</v>
       </c>
     </row>
   </sheetData>
